--- a/CurrentCodeAndResults/AlternativeModels.xlsx
+++ b/CurrentCodeAndResults/AlternativeModels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben Rapone\Documents\Research\OPF\CurrentCodeAndResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben Rapone\Documents\Research\OPF\OPF\CurrentCodeAndResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="0" windowWidth="4680" windowHeight="8070" xr2:uid="{1D9B299A-2711-48A8-B4C7-CFA685D09CD6}"/>
+    <workbookView xWindow="12825" yWindow="0" windowWidth="4680" windowHeight="8070" xr2:uid="{1D9B299A-2711-48A8-B4C7-CFA685D09CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsTable" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="C14Graphs" sheetId="5" r:id="rId4"/>
     <sheet name="C30Graphs" sheetId="10" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ResultsTable!$A$1:$M$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ResultsTable!$A:$B</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -196,13 +200,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2550,18 +2554,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResultsTable!$D$13:$D$15</c:f>
+              <c:f>ResultsTable!$D$10:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.0077979199999998</c:v>
+                  <c:v>29.5252099044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.328150260000001</c:v>
+                  <c:v>66.340857561000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.654103330000002</c:v>
+                  <c:v>69.584210625300003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,18 +2627,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResultsTable!$G$13:$G$15</c:f>
+              <c:f>ResultsTable!$G$10:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.37639611947399998</c:v>
+                  <c:v>4.3753266057899998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0472651495900001</c:v>
+                  <c:v>9.6630591429999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.62745216268</c:v>
+                  <c:v>8.5786530879999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,18 +2700,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ResultsTable!$J$13:$J$15</c:f>
+              <c:f>ResultsTable!$J$10:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.70882434568899999</c:v>
+                  <c:v>5.5200258632699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.85275851408</c:v>
+                  <c:v>10.168007369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5983627623599999</c:v>
+                  <c:v>11.424956948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,18 +2755,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>ResultsTable!$M$13:$M$15</c:f>
+              <c:f>ResultsTable!$M$10:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.8223631797299999</c:v>
+                  <c:v>4.9468695302999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80845953154500005</c:v>
+                  <c:v>5.1847513589099998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81425781425400001</c:v>
+                  <c:v>5.6794617462600003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4613,7 +4617,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" u="sng" baseline="0"/>
-              <a:t>MatPower Case30 and Case57 DataSet</a:t>
+              <a:t>MatPower Case30 DataSet</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5732,7 +5736,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" u="sng" baseline="0"/>
-                  <a:t>MatPower Case 14 DataSet</a:t>
+                  <a:t>MatPower Case 30 DataSet</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" u="sng"/>
               </a:p>
@@ -6009,7 +6013,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -10980,7 +10984,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10997,31 +11001,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="M1" s="17"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -11200,7 +11204,7 @@
       <c r="J5" s="12">
         <v>22736.120920199999</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>3.01321324966E-2</v>
       </c>
@@ -11248,7 +11252,7 @@
       <c r="J6" s="11">
         <v>37329.836349999998</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>6.0203114204500002E-2</v>
       </c>
@@ -11731,13 +11735,17 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="110" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E480FD45-03B8-4A8A-93F9-C485FAF44AC6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11746,28 +11754,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20B3F87-6975-41C3-A4F7-003492611F33}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A34C4A-899F-4D22-878F-70689C3D9680}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11776,13 +11794,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCE72E-92BE-46E7-B082-2B946C3989CE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11791,7 +11814,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CurrentCodeAndResults/AlternativeModels.xlsx
+++ b/CurrentCodeAndResults/AlternativeModels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12825" yWindow="0" windowWidth="4680" windowHeight="8070" xr2:uid="{1D9B299A-2711-48A8-B4C7-CFA685D09CD6}"/>
+    <workbookView xWindow="14250" yWindow="0" windowWidth="4680" windowHeight="8070" activeTab="4" xr2:uid="{1D9B299A-2711-48A8-B4C7-CFA685D09CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Case #</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Inner Linear Relaxation Bound Tightening</t>
+  </si>
+  <si>
+    <t>Robustness of Solutio nwith respect to Variability of DERs</t>
+  </si>
+  <si>
+    <t>MatPower Case 5 Data Set</t>
+  </si>
+  <si>
+    <t>Computational Time for Robustness Models</t>
   </si>
 </sst>
 </file>
@@ -240,98 +249,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Robustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution with respect to Variability of DERs</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" u="sng" baseline="0"/>
-              <a:t>MatPower Case5 DataSet</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11938648293963254"/>
-          <c:y val="2.0547945205479451E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14760720427187982"/>
-          <c:y val="0.28245367322395731"/>
+          <c:x val="0.11812881209753993"/>
+          <c:y val="6.2802044481281946E-2"/>
           <c:w val="0.82710543940628112"/>
-          <c:h val="0.46602656273317006"/>
+          <c:h val="0.73035410047428284"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -341,7 +269,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -414,7 +342,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLowerl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -487,7 +415,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -560,7 +488,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpperl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -665,12 +593,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -679,8 +603,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.53486676144648582"/>
-              <c:y val="0.76398356883471763"/>
+              <c:x val="0.46535656976527223"/>
+              <c:y val="0.86319841598747526"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -780,7 +704,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -798,13 +722,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Maximal</a:t>
+                  <a:t>r</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Radius on variability of fiirst 5 DERs</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -812,8 +731,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.1526022528433946"/>
-              <c:y val="0.29312030345521883"/>
+              <c:x val="2.5439829499985488E-2"/>
+              <c:y val="0.47653469632085466"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -825,7 +744,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -880,45 +799,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -927,6 +807,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17852446169347316"/>
+          <c:y val="0.91754330708661413"/>
+          <c:w val="0.61544567592558042"/>
+          <c:h val="3.9473960491780639E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -985,75 +906,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Computational Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for R</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>obustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1063,7 +916,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1136,7 +989,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1209,7 +1062,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1282,7 +1135,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpper</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1373,29 +1226,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" u="sng" baseline="0"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" u="sng" baseline="0"/>
-                  <a:t>MatPower Case 5 DataSet</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" u="sng"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1601,7 +1434,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1689,94 +1522,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Robustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution with respect to Variability of DERs</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" u="sng" baseline="0"/>
-              <a:t>MatPower Case9 DataSet </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" u="sng"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16946645536185947"/>
-          <c:y val="5.9179998159662427E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33305963537442129"/>
-          <c:y val="0.2134342382940857"/>
+          <c:x val="0.11812881209753993"/>
+          <c:y val="6.2802044481281946E-2"/>
           <c:w val="0.82710543940628112"/>
-          <c:h val="0.46602656273317006"/>
+          <c:h val="0.73035410047428284"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1786,7 +1542,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1851,7 +1607,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB82-4574-BDD5-CC54F67EE5C5}"/>
+              <c16:uniqueId val="{00000000-402D-4887-A013-F501B03D4A8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1859,7 +1615,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLowerl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1924,7 +1680,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB82-4574-BDD5-CC54F67EE5C5}"/>
+              <c16:uniqueId val="{00000001-402D-4887-A013-F501B03D4A8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1932,7 +1688,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1997,7 +1753,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB82-4574-BDD5-CC54F67EE5C5}"/>
+              <c16:uniqueId val="{00000002-402D-4887-A013-F501B03D4A8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2005,7 +1761,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpperl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2052,7 +1808,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FB82-4574-BDD5-CC54F67EE5C5}"/>
+              <c16:uniqueId val="{00000003-402D-4887-A013-F501B03D4A8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2110,12 +1866,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2124,8 +1876,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.53587564628906337"/>
-              <c:y val="0.7608009850187758"/>
+              <c:x val="0.46535656976527223"/>
+              <c:y val="0.86319841598747526"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2225,7 +1977,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2243,13 +1995,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Maximal</a:t>
+                  <a:t>r</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Radius on variability of fiirst 5 DERs</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2257,8 +2004,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.13305281372316574"/>
-              <c:y val="0.26677342497542139"/>
+              <c:x val="2.5439829499985488E-2"/>
+              <c:y val="0.47653469632085466"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2270,7 +2017,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2325,45 +2072,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2372,6 +2080,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17852446169347316"/>
+          <c:y val="0.91754330708661413"/>
+          <c:w val="0.61544567592558042"/>
+          <c:h val="3.9473960491780639E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2430,75 +2179,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Computational Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for R</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>obustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2508,7 +2189,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2573,7 +2254,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3652-4CA0-AE3D-112596DE4E65}"/>
+              <c16:uniqueId val="{00000000-6339-48F4-AED4-B5C06A151481}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2581,7 +2262,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2646,7 +2327,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3652-4CA0-AE3D-112596DE4E65}"/>
+              <c16:uniqueId val="{00000001-6339-48F4-AED4-B5C06A151481}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2654,7 +2335,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2719,7 +2400,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3652-4CA0-AE3D-112596DE4E65}"/>
+              <c16:uniqueId val="{00000002-6339-48F4-AED4-B5C06A151481}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2727,7 +2408,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpper</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2774,7 +2455,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3652-4CA0-AE3D-112596DE4E65}"/>
+              <c16:uniqueId val="{00000003-6339-48F4-AED4-B5C06A151481}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2818,29 +2499,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" u="sng" baseline="0"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" u="sng" baseline="0"/>
-                  <a:t>MatPower Case 9 DataSet</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" u="sng"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3046,7 +2707,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3134,98 +2795,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Robustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution with respect to Variability of DERs</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" u="sng" baseline="0"/>
-              <a:t>MatPower Case14 DataSet</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11938648293963254"/>
-          <c:y val="2.0547945205479451E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14760720427187982"/>
-          <c:y val="0.28245367322395731"/>
+          <c:x val="0.11812881209753993"/>
+          <c:y val="6.2802044481281946E-2"/>
           <c:w val="0.82710543940628112"/>
-          <c:h val="0.46602656273317006"/>
+          <c:h val="0.73035410047428284"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3235,7 +2815,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3300,7 +2880,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F53B-4825-AEA1-6A6BFC6C0B07}"/>
+              <c16:uniqueId val="{00000000-E797-49F9-9CC9-A9DFF6C8C2D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3308,7 +2888,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLowerl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3373,7 +2953,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F53B-4825-AEA1-6A6BFC6C0B07}"/>
+              <c16:uniqueId val="{00000001-E797-49F9-9CC9-A9DFF6C8C2D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3381,7 +2961,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3446,7 +3026,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F53B-4825-AEA1-6A6BFC6C0B07}"/>
+              <c16:uniqueId val="{00000002-E797-49F9-9CC9-A9DFF6C8C2D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3454,7 +3034,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpperl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3501,7 +3081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F53B-4825-AEA1-6A6BFC6C0B07}"/>
+              <c16:uniqueId val="{00000003-E797-49F9-9CC9-A9DFF6C8C2D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3559,12 +3139,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3573,8 +3149,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.57488790204541973"/>
-              <c:y val="0.80051324920001443"/>
+              <c:x val="0.46535656976527223"/>
+              <c:y val="0.86319841598747526"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3674,7 +3250,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3692,13 +3268,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Maximal</a:t>
+                  <a:t>r</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Radius on variability of fiirst 5 DERs</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3706,8 +3277,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.1526022528433946"/>
-              <c:y val="0.29312030345521883"/>
+              <c:x val="2.5439829499985488E-2"/>
+              <c:y val="0.47653469632085466"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3719,7 +3290,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3774,45 +3345,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3821,6 +3353,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17852446169347316"/>
+          <c:y val="0.91754330708661413"/>
+          <c:w val="0.61544567592558042"/>
+          <c:h val="3.9473960491780639E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3879,75 +3452,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Computational Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for R</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>obustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3957,7 +3462,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4022,7 +3527,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E402-4BA3-A608-4E6A567D5423}"/>
+              <c16:uniqueId val="{00000000-CF31-491F-9C77-4F6078D79390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4030,7 +3535,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4095,7 +3600,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E402-4BA3-A608-4E6A567D5423}"/>
+              <c16:uniqueId val="{00000001-CF31-491F-9C77-4F6078D79390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4103,7 +3608,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4168,7 +3673,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E402-4BA3-A608-4E6A567D5423}"/>
+              <c16:uniqueId val="{00000002-CF31-491F-9C77-4F6078D79390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4176,7 +3681,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpper</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4223,7 +3728,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E402-4BA3-A608-4E6A567D5423}"/>
+              <c16:uniqueId val="{00000003-CF31-491F-9C77-4F6078D79390}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4267,29 +3772,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" u="sng" baseline="0"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" u="sng" baseline="0"/>
-                  <a:t>MatPower Case 14 DataSet</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" u="sng"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4495,7 +3980,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4583,98 +4068,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Robustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution with respect to Variability of DERs</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" u="sng" baseline="0"/>
-              <a:t>MatPower Case30 DataSet</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12359924203787323"/>
-          <c:y val="2.0547945205479451E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14760720427187982"/>
-          <c:y val="0.28245367322395731"/>
+          <c:x val="0.11812881209753993"/>
+          <c:y val="6.2802044481281946E-2"/>
           <c:w val="0.82710543940628112"/>
-          <c:h val="0.46602656273317006"/>
+          <c:h val="0.73035410047428284"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4684,7 +4088,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4749,7 +4153,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B72E-4D5E-9F5F-0C272056F2FE}"/>
+              <c16:uniqueId val="{00000000-8EBB-4AF4-BBA9-83BED7B817A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4757,7 +4161,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLowerl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4822,7 +4226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B72E-4D5E-9F5F-0C272056F2FE}"/>
+              <c16:uniqueId val="{00000001-8EBB-4AF4-BBA9-83BED7B817A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4830,7 +4234,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4895,7 +4299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B72E-4D5E-9F5F-0C272056F2FE}"/>
+              <c16:uniqueId val="{00000002-8EBB-4AF4-BBA9-83BED7B817A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4903,7 +4307,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpperl</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4950,7 +4354,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B72E-4D5E-9F5F-0C272056F2FE}"/>
+              <c16:uniqueId val="{00000003-8EBB-4AF4-BBA9-83BED7B817A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5008,12 +4412,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5022,8 +4422,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.57488790204541973"/>
-              <c:y val="0.80051324920001443"/>
+              <c:x val="0.46535656976527223"/>
+              <c:y val="0.86319841598747526"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5123,7 +4523,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5141,13 +4541,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Maximal</a:t>
+                  <a:t>r</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Radius on variability of fiirst 5 DERs</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5155,8 +4550,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.1526022528433946"/>
-              <c:y val="0.29312030345521883"/>
+              <c:x val="2.5439829499985488E-2"/>
+              <c:y val="0.47653469632085466"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5168,7 +4563,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5223,45 +4618,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5270,6 +4626,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17852446169347316"/>
+          <c:y val="0.91754330708661413"/>
+          <c:w val="0.61544567592558042"/>
+          <c:h val="3.9473960491780639E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5328,75 +4725,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Computational Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for R</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>obustness</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of Solution </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -5406,7 +4735,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>BDTighteningInnerApproxModel</c:v>
+            <c:v>BdTgtLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5471,7 +4800,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB52-44B5-8447-95C28333E46F}"/>
+              <c16:uniqueId val="{00000000-67C7-43B0-864F-6427E5730B61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5479,7 +4808,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>MIPFeasInnerApproxModel</c:v>
+            <c:v>MIPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5544,7 +4873,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB52-44B5-8447-95C28333E46F}"/>
+              <c16:uniqueId val="{00000001-67C7-43B0-864F-6427E5730B61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5552,7 +4881,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>LPFeasInnerApproxModel</c:v>
+            <c:v>LPLower</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5617,7 +4946,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EB52-44B5-8447-95C28333E46F}"/>
+              <c16:uniqueId val="{00000002-67C7-43B0-864F-6427E5730B61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5625,7 +4954,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>LPOuterApproxModel</c:v>
+            <c:v>LPUpper</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5672,7 +5001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EB52-44B5-8447-95C28333E46F}"/>
+              <c16:uniqueId val="{00000003-67C7-43B0-864F-6427E5730B61}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5716,29 +5045,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bound</a:t>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>max(b_i)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> on flow between Nodes</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" u="sng" baseline="0"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" u="sng" baseline="0"/>
-                  <a:t>MatPower Case 30 DataSet</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" u="sng"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5944,7 +5253,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6013,7 +5322,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -10367,15 +9676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10403,15 +9712,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10445,23 +9754,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009A8D38-2E6F-4301-84D8-F3F8523FBA21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DAD918-F3E3-4BCF-807F-52F2631D27D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10486,20 +9795,20 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC9800C-DE2E-482B-8C44-0AE41756DF75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDFF58E-8E8E-46DC-BD64-2F81F081DFF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10534,15 +9843,15 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54282401-B7DC-48F7-8D06-597249F2670B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8005C1-323C-494E-84FA-DFE8E9AC8D58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10564,23 +9873,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D97583-CBE2-4652-A47B-51CED1200280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF09628-EBF4-466C-A213-56675AF22A05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10615,15 +9924,15 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFCE9DB-D32A-4DFB-954E-7830AC9EFC19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AD275C-0664-4BCD-B028-53529C0632C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10645,23 +9954,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756823D1-34BF-4756-BB1E-448ED9D37377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A61536-C9B2-4B3A-B966-D0A5A3EF042F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10983,7 +10292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E2A94-A81C-4B7C-A6E2-715C5DFC85CB}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
@@ -11746,14 +11055,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
@@ -11768,8 +11094,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11789,7 +11115,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11808,8 +11134,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
